--- a/data/trans_bre/P21D_5_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P21D_5_R-Edad-trans_bre.xlsx
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.3942443888749191</v>
+        <v>0.3942443888749192</v>
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.005383826011033</v>
+        <v>1.943922146311891</v>
       </c>
       <c r="D9" s="6" t="inlineStr"/>
     </row>
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.52915892190513</v>
+        <v>1.277628132631948</v>
       </c>
       <c r="D12" s="6" t="inlineStr"/>
     </row>
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.03296958545944478</v>
+        <v>0.03296958545944469</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.09098394102570541</v>
+        <v>0.09098394102570517</v>
       </c>
     </row>
     <row r="14">
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.096996004764685</v>
+        <v>-1.189991849665732</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
     </row>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7918728369730371</v>
+        <v>0.7853994096629719</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
     </row>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.18610616593116</v>
+        <v>-1.241149085791361</v>
       </c>
       <c r="D17" s="6" t="inlineStr"/>
     </row>
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.279235754198629</v>
+        <v>1.339340664686746</v>
       </c>
       <c r="D18" s="6" t="inlineStr"/>
     </row>
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.7805489779361834</v>
+        <v>0.7805489779361833</v>
       </c>
       <c r="D19" s="6" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1936024837638988</v>
+        <v>0.1937105684996549</v>
       </c>
       <c r="D20" s="6" t="inlineStr"/>
     </row>
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.132846284645708</v>
+        <v>2.016361764014687</v>
       </c>
       <c r="D21" s="6" t="inlineStr"/>
     </row>
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.331575261445925</v>
+        <v>-2.559379502376227</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
     </row>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.178210010232092</v>
+        <v>0.1782100102320919</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.8250920165483467</v>
+        <v>0.8250920165483464</v>
       </c>
     </row>
     <row r="26">
@@ -860,10 +860,10 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.1336244764173652</v>
+        <v>-0.1493650581064762</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5699507414030589</v>
+        <v>-0.5893411260768988</v>
       </c>
     </row>
     <row r="27">
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4749844426939436</v>
+        <v>0.5292569851095404</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6.363004343675221</v>
+        <v>8.853094977657236</v>
       </c>
     </row>
     <row r="28">
